--- a/20170719-police_shootings/builds/development/data/ maindata.xlsx
+++ b/20170719-police_shootings/builds/development/data/ maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mn_shootings" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="raceChart" sheetId="8" r:id="rId3"/>
     <sheet name="yearChart" sheetId="9" r:id="rId4"/>
     <sheet name="source" sheetId="10" r:id="rId5"/>
+    <sheet name="layout" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8247" uniqueCount="1846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8401" uniqueCount="1885">
   <si>
     <t>doch</t>
   </si>
@@ -5563,6 +5564,123 @@
   </si>
   <si>
     <t>Minnesota police-involved shootings by year</t>
+  </si>
+  <si>
+    <t>Longitude coordinate of shooting death</t>
+  </si>
+  <si>
+    <t>Last name of deceased</t>
+  </si>
+  <si>
+    <t>First name of deceased</t>
+  </si>
+  <si>
+    <t>Middle name or initial of deceased</t>
+  </si>
+  <si>
+    <t>Birthdate of deceased</t>
+  </si>
+  <si>
+    <t>Death date of deceased</t>
+  </si>
+  <si>
+    <t>Year of incident</t>
+  </si>
+  <si>
+    <t>Type of weapon, if any, wielded by the deceased</t>
+  </si>
+  <si>
+    <t>Age of deceased</t>
+  </si>
+  <si>
+    <t>Race of deceased</t>
+  </si>
+  <si>
+    <t>Incident number of case</t>
+  </si>
+  <si>
+    <t>Subcategory of incedent, either SHOT or RESTRAINED</t>
+  </si>
+  <si>
+    <t>Was the officered charged? YES/NO</t>
+  </si>
+  <si>
+    <t>Which department investigated the incident</t>
+  </si>
+  <si>
+    <t>Which department decided whether the incident was a homicide</t>
+  </si>
+  <si>
+    <t>Personal suffix of the deceased</t>
+  </si>
+  <si>
+    <t>Whether the deceased was HISPANIC or NON-HISPANIC</t>
+  </si>
+  <si>
+    <t>Gender of the deceased</t>
+  </si>
+  <si>
+    <t>Occuption of the deceased</t>
+  </si>
+  <si>
+    <t>Resident city of the deceased</t>
+  </si>
+  <si>
+    <t>Resident state of the deceased</t>
+  </si>
+  <si>
+    <t>Manner of death for the deceased</t>
+  </si>
+  <si>
+    <t>Description of the fatal injury suffered by the deceased</t>
+  </si>
+  <si>
+    <t>Date of injury/death incident</t>
+  </si>
+  <si>
+    <t>Address of incident</t>
+  </si>
+  <si>
+    <t>City where incident occurred</t>
+  </si>
+  <si>
+    <t>Regionn of state where incident occurred (Minneapolis)</t>
+  </si>
+  <si>
+    <t>Weapon carried by the deceased, if any</t>
+  </si>
+  <si>
+    <t>Category of weapon carried by the deceased, if any</t>
+  </si>
+  <si>
+    <t>Which law enforcement agency was involved with the death</t>
+  </si>
+  <si>
+    <t>Detailed narrative of the incident</t>
+  </si>
+  <si>
+    <t>URL for photo of the deceased</t>
+  </si>
+  <si>
+    <t>URL for story about the incident</t>
+  </si>
+  <si>
+    <t>Whether the deceased was experiencing a mental health crisis at the time of death, YES/NO</t>
+  </si>
+  <si>
+    <t>Percent of population represented by race/ethnicity</t>
+  </si>
+  <si>
+    <t>Race/ethnicity category</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Number of police-involved deaths</t>
+  </si>
+  <si>
+    <t>Perce ot police-involved deaths represented by race/ethnicity</t>
   </si>
 </sst>
 </file>
@@ -5734,8 +5852,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5853,10 +5977,16 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -77816,7 +77946,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -77878,6 +78008,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -77892,7 +78023,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -78051,6 +78182,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -78063,8 +78195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -78147,4 +78279,645 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="54" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="54" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="54" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="54" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>